--- a/public/templates/store-import-template.xlsx
+++ b/public/templates/store-import-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\Desktop\New folder (4)\Zopper\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95FA896-F25C-4B71-BED4-FBD97943283E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC60A237-8046-4834-B121-D00215DA4BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Store_ID</t>
   </si>
@@ -103,13 +103,19 @@
   </si>
   <si>
     <t>Kanishk Bhardwaj ,Vikash Dubey , Gautam</t>
+  </si>
+  <si>
+    <t>partnerBrandTypes</t>
+  </si>
+  <si>
+    <t>A+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +135,14 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +189,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -501,13 +521,15 @@
     <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -520,14 +542,18 @@
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A10" si="0">"store_" &amp; TEXT(ROW()-1,"000000")</f>
         <v>store_000001</v>
@@ -542,13 +568,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000002</v>
@@ -563,13 +592,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000003</v>
@@ -584,13 +616,16 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000004</v>
@@ -605,13 +640,16 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000005</v>
@@ -626,13 +664,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000006</v>
@@ -647,13 +688,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000007</v>
@@ -668,13 +712,16 @@
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000008</v>
@@ -689,13 +736,16 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000009</v>
@@ -710,9 +760,12 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/public/templates/store-import-template.xlsx
+++ b/public/templates/store-import-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\Desktop\New folder (4)\Zopper\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC60A237-8046-4834-B121-D00215DA4BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB91F0D-5610-4860-901E-C7D50889EAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
